--- a/Doc/GraphicTeam_WorkingTable/1012.xlsx
+++ b/Doc/GraphicTeam_WorkingTable/1012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameTeamPro\Doc\GraphicTeam_WorkingTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F067FBC-4323-41C7-9CC0-974D03686400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58746EE4-52AB-4945-98EF-02D0CDD2D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5BC10FAD-E679-437C-9D12-785165EB76DC}"/>
+    <workbookView xWindow="420" yWindow="1635" windowWidth="16485" windowHeight="13320" xr2:uid="{5BC10FAD-E679-437C-9D12-785165EB76DC}"/>
   </bookViews>
   <sheets>
     <sheet name="0927" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>김정현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>총 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,6 +1101,102 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,103 +1224,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,13 +1541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD29FBFB-FFC4-482D-BB9E-EB255C3FD6C8}">
-  <dimension ref="B2:P47"/>
+  <dimension ref="B2:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1558,16 +1570,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" s="18"/>
@@ -1580,10 +1592,10 @@
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1596,10 +1608,10 @@
       <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="19" t="s">
         <v>48</v>
       </c>
@@ -1614,16 +1626,16 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1638,8 +1650,8 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="52"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1660,14 +1672,14 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1680,10 +1692,10 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1696,10 +1708,10 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="9" t="s">
         <v>38</v>
       </c>
@@ -1712,10 +1724,10 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="11" t="s">
         <v>39</v>
       </c>
@@ -1728,10 +1740,10 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="9" t="s">
         <v>61</v>
       </c>
@@ -1747,10 +1759,10 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="9" t="s">
         <v>63</v>
       </c>
@@ -1761,9 +1773,9 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1779,9 +1791,9 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="9" t="s">
         <v>42</v>
       </c>
@@ -1795,9 +1807,9 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
@@ -1814,9 +1826,9 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
@@ -1829,10 +1841,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1845,10 +1857,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="40"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+    <row r="18" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="12" t="s">
         <v>43</v>
       </c>
@@ -1861,31 +1873,31 @@
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="65" t="s">
+    <row r="19" spans="2:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="34">
         <v>6</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="42"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="8" t="s">
         <v>50</v>
       </c>
@@ -1893,13 +1905,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="42"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="8" t="s">
         <v>65</v>
       </c>
@@ -1907,15 +1919,15 @@
         <v>1</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="45" t="s">
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="42"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
@@ -1932,11 +1944,11 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="42"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
@@ -1954,11 +1966,11 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="42"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1975,11 +1987,11 @@
       <c r="L24"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="42"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1996,11 +2008,11 @@
       <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="42"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="9" t="s">
         <v>16</v>
       </c>
@@ -2017,11 +2029,11 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="42"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="9" t="s">
         <v>17</v>
       </c>
@@ -2038,11 +2050,11 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="42"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="9" t="s">
         <v>26</v>
       </c>
@@ -2059,11 +2071,11 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="42"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="50"/>
       <c r="F29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2078,36 +2090,36 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="49"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="42"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="50"/>
       <c r="F30" s="9" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G30" s="6">
         <v>1</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="68"/>
+      <c r="O30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="42"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G31" s="6">
         <v>1</v>
@@ -2115,22 +2127,22 @@
       <c r="H31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>2</v>
-      </c>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="42"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="63"/>
       <c r="F32" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
@@ -2144,53 +2156,56 @@
       <c r="M32"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="44" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="42"/>
+      <c r="C34" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D34" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="9" t="s">
+      <c r="E34" s="61"/>
+      <c r="F34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="54"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="72">
-        <v>10</v>
+      <c r="G34" s="6">
+        <v>1</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
-      <c r="O34" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="54"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="72">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G35" s="37">
+        <v>10</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
@@ -2202,156 +2217,166 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="54"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="6">
-        <v>11</v>
+      <c r="B36" s="42"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="37">
+        <v>1</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
+      <c r="O36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="54"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="54"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="55"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="29" t="s">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="42"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="43"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-    </row>
-    <row r="40" spans="2:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="2:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C41" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="8" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="54"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="12" t="s">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="42"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="54"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="54"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
       <c r="F43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="54"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="61"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="50"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="54"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="48"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="12"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="56"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="75"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G47" s="30"/>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="42"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="44"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="40"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:B39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:E44"/>
-    <mergeCell ref="C45:E46"/>
-    <mergeCell ref="C19:C32"/>
-    <mergeCell ref="D33:E39"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D19:E21"/>
-    <mergeCell ref="D22:E30"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="K4:L4"/>
@@ -2361,6 +2386,16 @@
     <mergeCell ref="D7:E12"/>
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B19:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C41:E45"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="D34:E40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="D22:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
